--- a/sample_data/sample_data_2024-11.xlsx
+++ b/sample_data/sample_data_2024-11.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -13712,7 +13712,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -15347,7 +15347,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -16001,7 +16001,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -18617,7 +18617,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -20688,7 +20688,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -20906,7 +20906,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -21015,7 +21015,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -21342,7 +21342,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -21451,7 +21451,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -21669,7 +21669,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -21778,7 +21778,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -22214,7 +22214,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -22323,7 +22323,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -22541,7 +22541,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -22868,7 +22868,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -23522,7 +23522,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -23631,7 +23631,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -24067,7 +24067,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -24285,7 +24285,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -24394,7 +24394,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -24503,7 +24503,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -24830,7 +24830,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -25266,7 +25266,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -25375,7 +25375,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -25702,7 +25702,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -25811,7 +25811,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -25920,7 +25920,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -26247,7 +26247,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -26901,7 +26901,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -27119,7 +27119,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -27228,7 +27228,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -27337,7 +27337,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
